--- a/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/1.xlsx
+++ b/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\application\QT\park2\build\Desktop_Qt_6_7_2_MinGW_64_bit-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBB1F28-7978-4269-A6AC-7D9B11E4F198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00FB9D9C-A16B-4C91-855F-2FD2BE7A4544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49110" yWindow="4110" windowWidth="19125" windowHeight="11145" xr2:uid="{62356F8A-95F2-4ED5-A389-B6895126F607}"/>
+    <workbookView xWindow="2650" yWindow="2860" windowWidth="19200" windowHeight="11170" xr2:uid="{36EFE713-D69C-460C-B6BF-E0DD7DB0A7C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>停车场状态</t>
   </si>
   <si>
-    <t>停车历史记录</t>
-  </si>
-  <si>
     <t>停车场</t>
   </si>
   <si>
@@ -54,17 +51,38 @@
     <t>停车时间</t>
   </si>
   <si>
+    <t>入队时间</t>
+  </si>
+  <si>
+    <t>停车场历史记录</t>
+  </si>
+  <si>
     <t>出车时间</t>
   </si>
   <si>
-    <t>花费</t>
+    <t>花费/元</t>
+  </si>
+  <si>
+    <t>黑HA5T5F</t>
+  </si>
+  <si>
+    <t>川7YGEG4</t>
+  </si>
+  <si>
+    <t>湘ERSWPI</t>
+  </si>
+  <si>
+    <t>赣H07TI6</t>
+  </si>
+  <si>
+    <t>新XBOK1W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,10 +92,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="27"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="27"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -89,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,43 +130,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EE5EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFADD8E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7CFC00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8A2BE2"/>
+        <fgColor rgb="FFEEE0E5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,17 +197,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -184,13 +219,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,16 +559,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73E1455-7001-4DCE-A21A-CE1F400E751A}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56B9888-FFBF-474A-BAB2-E85F25818BD1}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="11" width="10.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,50 +580,199 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.45614583333333331</v>
+      </c>
+      <c r="C5" s="15">
+        <v>45649</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.4561574074074074</v>
+      </c>
+      <c r="C6" s="15">
+        <v>45649</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.4561574074074074</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45649</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.45616898148148149</v>
+      </c>
+      <c r="C8" s="15">
+        <v>45649</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.45616898148148149</v>
+      </c>
+      <c r="C9" s="15">
+        <v>45649</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:D4"/>
+  <mergeCells count="8">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A15:F16"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>